--- a/target/classes/data/data_test.xlsx
+++ b/target/classes/data/data_test.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7450" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7450" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Success" sheetId="1" r:id="rId1"/>
     <sheet name="Login_Alert_Username" sheetId="2" r:id="rId2"/>
     <sheet name="Login_Alert_Password" sheetId="3" r:id="rId3"/>
     <sheet name="Login_Alert_Popup" sheetId="4" r:id="rId4"/>
-    <sheet name="List_Menu_Account_Popup_Login" sheetId="10" r:id="rId5"/>
+    <sheet name="List_Menu_Account_Popup_Login" sheetId="12" r:id="rId5"/>
     <sheet name="List_Menu_Account_Direct" sheetId="11" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -749,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -808,7 +808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
